--- a/im.xlsx
+++ b/im.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/igorbarkhatov/Documents/GitHub/ATM-Challenge/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AE19D294-547A-F643-A4A5-6A835B34017B}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100008_{68E7D96C-1A13-FD4C-AFDF-608BF80D8CE7}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3180" yWindow="2060" windowWidth="27640" windowHeight="16940" xr2:uid="{5DDDB235-1DBD-BF49-AB5E-0F118E66E63C}"/>
+    <workbookView minimized="1" xWindow="3180" yWindow="2060" windowWidth="27640" windowHeight="16940" xr2:uid="{5DDDB235-1DBD-BF49-AB5E-0F118E66E63C}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -30,8 +30,8 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{DADC26C3-3C62-914A-987C-5D850986BDD3}" name="integral" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/igorbarkhatov/Documents/GitHub/ATM-Challenge/integral.csv" decimal="," thousands=" " comma="1">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="integral" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr sourceFile="/Users/igorbarkhatov/Documents/GitHub/ATM-Challenge/integral.csv" decimal="," thousands=" " comma="1">
       <textFields count="352">
         <textField/>
         <textField/>
@@ -392,7 +392,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="8">
   <si>
     <t>TARGET</t>
   </si>
@@ -1640,7 +1640,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="integral" adjustColumnWidth="0" connectionId="1" xr16:uid="{63A8FF1D-A109-644D-823E-F83DAAB79AA6}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="integral" adjustColumnWidth="0" connectionId="1" xr16:uid="{00000000-0016-0000-0000-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1942,8 +1942,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A4BCA5F-EC57-BA40-90DA-A1C8123D4732}">
   <dimension ref="A1:MO36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="GU9" workbookViewId="0">
-      <selection activeCell="HL34" sqref="HL34"/>
+    <sheetView tabSelected="1" topLeftCell="JK18" workbookViewId="0">
+      <selection activeCell="KE35" sqref="KE35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22539,7 +22539,7 @@
         <v>FALSE</v>
       </c>
       <c r="L25" t="str">
-        <f t="shared" ref="K25:BO25" si="11">IF(L19=L26=TRUE,"","FALSE")</f>
+        <f t="shared" ref="L25:BO25" si="11">IF(L19=L26=TRUE,"","FALSE")</f>
         <v/>
       </c>
       <c r="M25" t="str">
@@ -29646,7 +29646,6 @@
         <v>0</v>
       </c>
       <c r="AC30">
-        <f t="shared" si="41"/>
         <v>1</v>
       </c>
       <c r="AD30">
@@ -29730,7 +29729,6 @@
         <v>0</v>
       </c>
       <c r="AX30">
-        <f t="shared" si="41"/>
         <v>1</v>
       </c>
       <c r="AY30">
@@ -29850,7 +29848,6 @@
         <v>1</v>
       </c>
       <c r="CB30">
-        <f t="shared" si="42"/>
         <v>1</v>
       </c>
       <c r="CC30">
@@ -29938,8 +29935,7 @@
         <v>0</v>
       </c>
       <c r="CX30">
-        <f t="shared" si="42"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CY30">
         <f t="shared" si="42"/>
@@ -30126,8 +30122,7 @@
         <v>0</v>
       </c>
       <c r="ES30">
-        <f t="shared" si="43"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ET30">
         <f t="shared" si="43"/>
@@ -30262,7 +30257,6 @@
         <v>1</v>
       </c>
       <c r="GA30">
-        <f t="shared" si="43"/>
         <v>1</v>
       </c>
       <c r="GB30">
@@ -30337,7 +30331,6 @@
         <v>1</v>
       </c>
       <c r="GT30">
-        <f t="shared" si="44"/>
         <v>1</v>
       </c>
       <c r="GU30">
@@ -30484,7 +30477,6 @@
         <v>1</v>
       </c>
       <c r="IE30">
-        <f t="shared" si="44"/>
         <v>1</v>
       </c>
       <c r="IF30">
@@ -30516,7 +30508,6 @@
         <v>1</v>
       </c>
       <c r="IM30">
-        <f t="shared" si="44"/>
         <v>1</v>
       </c>
       <c r="IN30">
@@ -30691,7 +30682,6 @@
         <v>1</v>
       </c>
       <c r="KE30">
-        <f t="shared" si="45"/>
         <v>1</v>
       </c>
       <c r="KF30">
@@ -30932,14 +30922,37 @@
       <c r="MM30">
         <f>MM19</f>
         <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="11:332" x14ac:dyDescent="0.2">
+      <c r="AC34" s="7">
+        <v>1</v>
+      </c>
+      <c r="KE34" s="7" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="35" spans="11:332" x14ac:dyDescent="0.2">
       <c r="K35" s="9" t="s">
         <v>6</v>
       </c>
+      <c r="AX35" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="CB35" s="7">
+        <v>1</v>
+      </c>
+      <c r="CX35" s="7">
+        <v>0</v>
+      </c>
       <c r="HJ35" s="8">
         <v>0</v>
+      </c>
+      <c r="IE35" s="7">
+        <v>1</v>
+      </c>
+      <c r="IM35" s="7" t="s">
+        <v>7</v>
       </c>
       <c r="IU35" s="7" t="s">
         <v>7</v>
@@ -30952,8 +30965,17 @@
       </c>
     </row>
     <row r="36" spans="11:332" x14ac:dyDescent="0.2">
+      <c r="ES36" s="7">
+        <v>0</v>
+      </c>
+      <c r="GA36" s="7">
+        <v>1</v>
+      </c>
       <c r="GH36" s="7" t="s">
         <v>7</v>
+      </c>
+      <c r="GT36" s="7">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -30997,7 +31019,7 @@
   <dimension ref="A1:B352"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -31823,7 +31845,7 @@
         <v>101</v>
       </c>
       <c r="B103" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
@@ -32199,7 +32221,7 @@
         <v>148</v>
       </c>
       <c r="B150" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.2">
@@ -32751,7 +32773,7 @@
         <v>217</v>
       </c>
       <c r="B219" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.2">
@@ -33335,7 +33357,7 @@
         <v>290</v>
       </c>
       <c r="B292" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.2">
